--- a/attached_assets/Portal_Data_Latest.xlsx
+++ b/attached_assets/Portal_Data_Latest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmariani\Documents\GitHub\AIDCPortalv2\attached_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3279BBDF-1DC9-4FA9-975B-7BE43C2154BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7756A99-3688-4BA1-95E6-0D31A7999319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="2115" windowWidth="15330" windowHeight="10305" xr2:uid="{D4942E2D-ABEA-4B65-A960-7E9265DC1C6B}"/>
+    <workbookView xWindow="-51720" yWindow="-3900" windowWidth="51840" windowHeight="21120" xr2:uid="{D4942E2D-ABEA-4B65-A960-7E9265DC1C6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12774" uniqueCount="5174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12774" uniqueCount="5180">
   <si>
     <t>HQ Country</t>
   </si>
@@ -15534,16 +15534,10 @@
     <t>10/10 - Meeting arranged with Cloudera on 20/10 - Go Jasmin ;)</t>
   </si>
   <si>
-    <t>13/10 - Tracking down UKI assets, none exist in the UK from last 12m orders. Any new kit is net new.</t>
-  </si>
-  <si>
     <t>08/10 - Onsite workshop for Oracle Project.</t>
   </si>
   <si>
     <t>13/10 - not on LinkedIN</t>
-  </si>
-  <si>
-    <t>13/10 - Messaged CxOs</t>
   </si>
   <si>
     <t>13/10 - No presence in LI</t>
@@ -15567,6 +15561,35 @@
   </si>
   <si>
     <t xml:space="preserve">Duplicate account </t>
+  </si>
+  <si>
+    <t>14/10 - Adarga messaged back, arranging a slot to present</t>
+  </si>
+  <si>
+    <t>14/10 - InMail sent to right contact, awaiting response, team are at an event this week in so may be a delay in response.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/10 - Internal meeting to identify key UKI contacts and arrange meeting to align. </t>
+  </si>
+  <si>
+    <t>14/10 - Right contact messaged in LI, awaiting response</t>
+  </si>
+  <si>
+    <t>14/10 - awaiting meeting dates</t>
+  </si>
+  <si>
+    <t>October: Inmail sent to Ash D. Head of Engineering Performance, Martin Wright
+Chief Architect, 
+Nick On
+Chief Operating Officer, 
+Ian Whitfield Chief Technology Officer, Alexander Nock
+Head of Engineering Innovation and Dame Dawn Childs DBE Freng Chief Executive Officer.</t>
+  </si>
+  <si>
+    <t>14/10 - Nscale engaged - Right contact InMail, awaiting response.</t>
+  </si>
+  <si>
+    <t>16/10 - Meeting booked in.</t>
   </si>
 </sst>
 </file>
@@ -15834,22 +15857,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -16198,7 +16206,7 @@
   <dimension ref="A1:AT717"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16911,7 +16919,7 @@
         <v>4013</v>
       </c>
       <c r="I8" t="s">
-        <v>5165</v>
+        <v>5164</v>
       </c>
       <c r="J8" s="9">
         <v>4592242</v>
@@ -17817,7 +17825,7 @@
         <v>4013</v>
       </c>
       <c r="I19" t="s">
-        <v>5165</v>
+        <v>5164</v>
       </c>
       <c r="J19" s="9">
         <v>15771008</v>
@@ -17888,13 +17896,13 @@
         <v>217</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="H20" s="32" t="s">
         <v>4013</v>
       </c>
       <c r="I20" t="s">
-        <v>5166</v>
+        <v>5172</v>
       </c>
       <c r="J20" s="9">
         <v>9742902</v>
@@ -18847,7 +18855,7 @@
         <v>4013</v>
       </c>
       <c r="I31" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="J31" s="9">
         <v>14797488</v>
@@ -19094,7 +19102,7 @@
         <v>4013</v>
       </c>
       <c r="I34" t="s">
-        <v>5108</v>
+        <v>5173</v>
       </c>
       <c r="J34" s="9">
         <v>3921701</v>
@@ -19177,7 +19185,7 @@
         <v>4013</v>
       </c>
       <c r="I35" t="s">
-        <v>5108</v>
+        <v>5173</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>346</v>
@@ -19525,7 +19533,7 @@
         <v>4013</v>
       </c>
       <c r="I39" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="J39" s="9">
         <v>5658935</v>
@@ -20107,7 +20115,7 @@
         <v>4013</v>
       </c>
       <c r="I46" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="J46" s="9">
         <v>12361650</v>
@@ -21283,7 +21291,7 @@
         <v>4013</v>
       </c>
       <c r="I59" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="J59" s="9">
         <v>7297347</v>
@@ -21967,7 +21975,7 @@
         <v>4013</v>
       </c>
       <c r="I67" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="J67" s="9">
         <v>4213760</v>
@@ -22360,7 +22368,7 @@
         <v>4013</v>
       </c>
       <c r="I72" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="J72" s="9">
         <v>11328797</v>
@@ -22967,7 +22975,7 @@
         <v>4013</v>
       </c>
       <c r="I79" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="J79" s="9">
         <v>10312178</v>
@@ -23408,7 +23416,7 @@
         <v>1553</v>
       </c>
       <c r="I84" s="35" t="s">
-        <v>5168</v>
+        <v>5166</v>
       </c>
       <c r="J84" s="9">
         <v>7196855</v>
@@ -30505,13 +30513,13 @@
         <v>1420</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="H164" s="32" t="s">
         <v>4013</v>
       </c>
       <c r="I164" t="s">
-        <v>5163</v>
+        <v>5174</v>
       </c>
       <c r="J164" s="9">
         <v>15272646</v>
@@ -31800,7 +31808,7 @@
         <v>4013</v>
       </c>
       <c r="I178" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="J178" s="9">
         <v>11541487</v>
@@ -31893,7 +31901,7 @@
         <v>4013</v>
       </c>
       <c r="I179" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="J179" s="9">
         <v>6879688</v>
@@ -33186,7 +33194,7 @@
         <v>1553</v>
       </c>
       <c r="I193" t="s">
-        <v>5169</v>
+        <v>5167</v>
       </c>
       <c r="J193" s="9">
         <v>4904386</v>
@@ -33754,7 +33762,7 @@
         <v>4013</v>
       </c>
       <c r="I199" t="s">
-        <v>5164</v>
+        <v>5163</v>
       </c>
       <c r="J199" s="9">
         <v>5813740</v>
@@ -35565,7 +35573,7 @@
         <v>4013</v>
       </c>
       <c r="I220" t="s">
-        <v>50</v>
+        <v>5175</v>
       </c>
       <c r="J220" s="9">
         <v>7900393</v>
@@ -42022,7 +42030,7 @@
         <v>1553</v>
       </c>
       <c r="I294" s="35" t="s">
-        <v>5170</v>
+        <v>5168</v>
       </c>
       <c r="J294" s="9">
         <v>12533315</v>
@@ -43730,7 +43738,7 @@
         <v>4013</v>
       </c>
       <c r="I314" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="J314" s="9">
         <v>5918482</v>
@@ -46735,7 +46743,7 @@
         <v>4013</v>
       </c>
       <c r="I349" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="J349" s="9">
         <v>4654498</v>
@@ -47317,7 +47325,7 @@
         <v>4013</v>
       </c>
       <c r="I356" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="J356" s="9">
         <v>4343900</v>
@@ -47584,7 +47592,7 @@
         <v>1553</v>
       </c>
       <c r="I359" t="s">
-        <v>5169</v>
+        <v>5167</v>
       </c>
       <c r="J359" s="9">
         <v>15544366</v>
@@ -48601,7 +48609,7 @@
         <v>4013</v>
       </c>
       <c r="I371" t="s">
-        <v>5107</v>
+        <v>5176</v>
       </c>
       <c r="J371" s="9">
         <v>14894136</v>
@@ -51444,7 +51452,7 @@
         <v>1091</v>
       </c>
       <c r="I403" s="35" t="s">
-        <v>5171</v>
+        <v>5169</v>
       </c>
       <c r="J403" s="9">
         <v>9027295</v>
@@ -51791,7 +51799,7 @@
         <v>4013</v>
       </c>
       <c r="I407" t="s">
-        <v>5172</v>
+        <v>5170</v>
       </c>
       <c r="J407" s="9">
         <v>15749408</v>
@@ -51878,7 +51886,7 @@
         <v>4013</v>
       </c>
       <c r="I408" t="s">
-        <v>5172</v>
+        <v>5170</v>
       </c>
       <c r="J408" s="9" t="s">
         <v>3270</v>
@@ -52896,7 +52904,7 @@
         <v>1553</v>
       </c>
       <c r="I420" t="s">
-        <v>5173</v>
+        <v>5171</v>
       </c>
       <c r="J420" s="9">
         <v>5682619</v>
@@ -53967,7 +53975,7 @@
         <v>4013</v>
       </c>
       <c r="I432" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="J432" s="9">
         <v>9242359</v>
@@ -55391,7 +55399,7 @@
         <v>1553</v>
       </c>
       <c r="I449" t="s">
-        <v>5173</v>
+        <v>5171</v>
       </c>
       <c r="J449" s="9">
         <v>3625971</v>
@@ -55498,7 +55506,7 @@
         <v>1091</v>
       </c>
       <c r="I450" t="s">
-        <v>50</v>
+        <v>5177</v>
       </c>
       <c r="J450" s="9">
         <v>13790716</v>
@@ -55678,7 +55686,7 @@
         <v>4013</v>
       </c>
       <c r="I452" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="J452" s="9">
         <v>13387995</v>
@@ -58314,7 +58322,7 @@
         <v>1553</v>
       </c>
       <c r="I482" t="s">
-        <v>5173</v>
+        <v>5171</v>
       </c>
       <c r="J482" s="9" t="s">
         <v>3799</v>
@@ -62117,7 +62125,7 @@
         <v>4013</v>
       </c>
       <c r="I526" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="J526" s="9">
         <v>7023266</v>
@@ -63822,7 +63830,7 @@
         <v>4013</v>
       </c>
       <c r="I548" t="s">
-        <v>5107</v>
+        <v>5178</v>
       </c>
       <c r="J548" s="9">
         <v>10933652</v>
@@ -70200,7 +70208,7 @@
         <v>4013</v>
       </c>
       <c r="I628" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="J628" s="9">
         <v>13190873</v>
@@ -71417,7 +71425,7 @@
         <v>4013</v>
       </c>
       <c r="I642" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="J642" s="9" t="s">
         <v>4828</v>
@@ -76803,13 +76811,13 @@
         <v>5123</v>
       </c>
       <c r="G717" s="9" t="s">
-        <v>5103</v>
+        <v>113</v>
       </c>
       <c r="H717" s="33" t="s">
         <v>4013</v>
       </c>
       <c r="I717" t="s">
-        <v>5108</v>
+        <v>5179</v>
       </c>
       <c r="J717" s="9">
         <v>10867089</v>

--- a/attached_assets/Portal_Data_Latest.xlsx
+++ b/attached_assets/Portal_Data_Latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmariani\Documents\GitHub\AIDCPortalv2\attached_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57160EA-B744-47DC-A49B-54AC888BA2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D98A357-CC4A-4861-AEAC-CCD46BEC3681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D4942E2D-ABEA-4B65-A960-7E9265DC1C6B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="1504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="1505">
   <si>
     <t>HQ Country</t>
   </si>
@@ -4562,6 +4562,9 @@
   </si>
   <si>
     <t>16/10 - Meeting booked in.</t>
+  </si>
+  <si>
+    <t>Test from master to portal</t>
   </si>
 </sst>
 </file>
@@ -8047,7 +8050,7 @@
         <v>1148</v>
       </c>
       <c r="I33" t="s">
-        <v>49</v>
+        <v>1504</v>
       </c>
       <c r="J33" s="9">
         <v>13826669</v>

--- a/attached_assets/Portal_Data_Latest.xlsx
+++ b/attached_assets/Portal_Data_Latest.xlsx
@@ -903,6 +903,9 @@
     <t>ELEVEN LABS LTD</t>
   </si>
   <si>
+    <t>Test sync to tracker &amp; portal</t>
+  </si>
+  <si>
     <t>www.elevenlabs.io</t>
   </si>
   <si>
@@ -925,9 +928,6 @@
   </si>
   <si>
     <t>MYSTIC AI LIMITED</t>
-  </si>
-  <si>
-    <t>Test from master to portal</t>
   </si>
   <si>
     <t>www.mystic.ai</t>
@@ -18123,6 +18123,9 @@
       <c r="H25" s="0" t="s">
         <v>62</v>
       </c>
+      <c r="I25" s="0" t="s">
+        <v>287</v>
+      </c>
       <c r="J25" s="0">
         <v>13826669</v>
       </c>
@@ -18133,19 +18136,19 @@
         <v>116</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="S25" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="U25" s="0">
         <v>10</v>
       </c>
       <c r="V25" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="W25" s="0">
         <v>10</v>
@@ -18157,16 +18160,16 @@
         <v>10</v>
       </c>
       <c r="Z25" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA25" s="0">
         <v>10</v>
       </c>
       <c r="AB25" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN25" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26">
@@ -18183,19 +18186,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>49</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>295</v>
       </c>
       <c r="J26" s="0">
         <v>11878518</v>

--- a/attached_assets/Portal_Data_Latest.xlsx
+++ b/attached_assets/Portal_Data_Latest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5182" uniqueCount="5182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5184" uniqueCount="5184">
   <si>
     <t>HQ Country</t>
   </si>
@@ -15569,6 +15569,12 @@
   </si>
   <si>
     <t>* DISOLVED ?</t>
+  </si>
+  <si>
+    <t>ROC TECHNOLOGIES LTD</t>
+  </si>
+  <si>
+    <t>Reached out on LinkedIn</t>
   </si>
 </sst>
 </file>
@@ -15620,7 +15626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AT717"/>
+  <dimension ref="A1:AT718"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -75722,6 +75728,20 @@
         <v>5181</v>
       </c>
     </row>
+    <row r="718">
+      <c r="E718" s="0" t="s">
+        <v>5182</v>
+      </c>
+      <c r="F718" s="0" t="s">
+        <v>5182</v>
+      </c>
+      <c r="H718" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I718" s="0" t="s">
+        <v>5183</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/attached_assets/Portal_Data_Latest.xlsx
+++ b/attached_assets/Portal_Data_Latest.xlsx
@@ -1,13 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PortalData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418E8E7D-78BB-4DDB-B6D7-C817AD5C172E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="-1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D4942E2D-ABEA-4B65-A960-7E9265DC1C6B}" activeTab="-1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -15580,17 +15604,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="00000000"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -15610,18 +15651,391 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15632,191 +16046,191 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7932758331299" customWidth="1"/>
-    <col min="2" max="2" width="37.9351005554199" customWidth="1"/>
+    <col min="1" max="1" width="15.0296964645386" customWidth="1"/>
+    <col min="2" max="2" width="41.0534057617188" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="67.9375152587891" customWidth="1"/>
-    <col min="6" max="6" width="70.4736938476563" customWidth="1"/>
-    <col min="7" max="7" width="16.6799030303955" customWidth="1"/>
-    <col min="8" max="8" width="13.4091625213623" customWidth="1"/>
-    <col min="9" max="9" width="119.208427429199" customWidth="1"/>
-    <col min="10" max="10" width="29.0896854400635" customWidth="1"/>
-    <col min="11" max="11" width="16.5868034362793" customWidth="1"/>
-    <col min="12" max="12" width="14.5365800857544" customWidth="1"/>
-    <col min="13" max="13" width="14.0322093963623" customWidth="1"/>
-    <col min="14" max="14" width="11.9165096282959" customWidth="1"/>
-    <col min="15" max="15" width="13.4429235458374" customWidth="1"/>
-    <col min="16" max="16" width="27.4896106719971" customWidth="1"/>
-    <col min="17" max="17" width="31.7250995635986" customWidth="1"/>
-    <col min="18" max="18" width="126.19596862793" customWidth="1"/>
-    <col min="19" max="19" width="11.4019079208374" customWidth="1"/>
-    <col min="20" max="20" width="145.692520141602" customWidth="1"/>
-    <col min="21" max="21" width="10.6571168899536" customWidth="1"/>
-    <col min="22" max="22" width="105.560737609863" customWidth="1"/>
-    <col min="23" max="23" width="25.4844017028809" customWidth="1"/>
-    <col min="24" max="24" width="115.341239929199" customWidth="1"/>
-    <col min="25" max="25" width="24.2608165740967" customWidth="1"/>
-    <col min="26" max="26" width="130.210479736328" customWidth="1"/>
-    <col min="27" max="27" width="9.9992847442627" customWidth="1"/>
-    <col min="28" max="28" width="76.9251327514648" customWidth="1"/>
-    <col min="29" max="29" width="32.6192588806152" customWidth="1"/>
-    <col min="30" max="30" width="36.4189224243164" customWidth="1"/>
-    <col min="31" max="31" width="27.8548450469971" customWidth="1"/>
-    <col min="32" max="32" width="46.4234733581543" customWidth="1"/>
-    <col min="33" max="33" width="45.011646270752" customWidth="1"/>
-    <col min="34" max="34" width="28.5310916900635" customWidth="1"/>
-    <col min="35" max="35" width="71.1611938476563" customWidth="1"/>
-    <col min="36" max="36" width="45.6244583129883" customWidth="1"/>
-    <col min="37" max="37" width="206.104507446289" customWidth="1"/>
-    <col min="38" max="38" width="161.242065429688" customWidth="1"/>
-    <col min="39" max="39" width="197.691848754883" customWidth="1"/>
-    <col min="40" max="40" width="140.794082641602" customWidth="1"/>
-    <col min="41" max="41" width="150.329025268555" customWidth="1"/>
-    <col min="42" max="42" width="132.697540283203" customWidth="1"/>
-    <col min="43" max="43" width="270.274230957031" customWidth="1"/>
-    <col min="44" max="44" width="528.799743652344" customWidth="1"/>
-    <col min="45" max="45" width="129.508651733398" customWidth="1"/>
-    <col min="46" max="46" width="175.712295532227" customWidth="1"/>
+    <col min="5" max="5" width="82.0721817016602" customWidth="1"/>
+    <col min="6" max="6" width="85.6355133056641" customWidth="1"/>
+    <col min="7" max="7" width="18.4477577209473" customWidth="1"/>
+    <col min="8" max="8" width="14.2460298538208" customWidth="1"/>
+    <col min="9" max="9" width="128.861053466797" customWidth="1"/>
+    <col min="10" max="10" width="32.0862426757813" customWidth="1"/>
+    <col min="11" max="11" width="17.8584728240967" customWidth="1"/>
+    <col min="12" max="12" width="15.813364982605" customWidth="1"/>
+    <col min="13" max="13" width="15.6537675857544" customWidth="1"/>
+    <col min="14" max="14" width="12.9313898086548" customWidth="1"/>
+    <col min="15" max="15" width="14.6133098602295" customWidth="1"/>
+    <col min="16" max="16" width="30.233470916748" customWidth="1"/>
+    <col min="17" max="17" width="33.8162460327148" customWidth="1"/>
+    <col min="18" max="18" width="140.580261230469" customWidth="1"/>
+    <col min="19" max="19" width="12.8966064453125" customWidth="1"/>
+    <col min="20" max="20" width="175.311264038086" customWidth="1"/>
+    <col min="21" max="21" width="12.4045114517212" customWidth="1"/>
+    <col min="22" max="22" width="114.406150817871" customWidth="1"/>
+    <col min="23" max="23" width="29.7516059875488" customWidth="1"/>
+    <col min="24" max="24" width="124.542686462402" customWidth="1"/>
+    <col min="25" max="25" width="26.9207859039307" customWidth="1"/>
+    <col min="26" max="26" width="141.866256713867" customWidth="1"/>
+    <col min="27" max="27" width="12.1487445831299" customWidth="1"/>
+    <col min="28" max="28" width="90.9032745361328" customWidth="1"/>
+    <col min="29" max="29" width="38.7300224304199" customWidth="1"/>
+    <col min="30" max="30" width="39.5658683776855" customWidth="1"/>
+    <col min="31" max="31" width="32.9558486938477" customWidth="1"/>
+    <col min="32" max="32" width="53.9542579650879" customWidth="1"/>
+    <col min="33" max="33" width="54.0739555358887" customWidth="1"/>
+    <col min="34" max="34" width="34.1313514709473" customWidth="1"/>
+    <col min="35" max="35" width="87.9496917724609" customWidth="1"/>
+    <col min="36" max="36" width="54.0534973144531" customWidth="1"/>
+    <col min="37" max="37" width="253.536880493164" customWidth="1"/>
+    <col min="38" max="38" width="195.430877685547" customWidth="1"/>
+    <col min="39" max="39" width="237.690628051758" customWidth="1"/>
+    <col min="40" max="40" width="171.800094604492" customWidth="1"/>
+    <col min="41" max="41" width="183.934677124023" customWidth="1"/>
+    <col min="42" max="42" width="160.638458251953" customWidth="1"/>
+    <col min="43" max="43" width="328.634979248047" customWidth="1"/>
+    <col min="44" max="44" width="640.028442382813" customWidth="1"/>
+    <col min="45" max="45" width="157.320663452148" customWidth="1"/>
+    <col min="46" max="46" width="212.563125610352" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>45</v>
       </c>
     </row>

--- a/attached_assets/Portal_Data_Latest.xlsx
+++ b/attached_assets/Portal_Data_Latest.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5185" uniqueCount="5185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5209" uniqueCount="5209">
   <si>
     <t>HQ Country</t>
   </si>
@@ -15602,6 +15602,78 @@
   </si>
   <si>
     <t>TAIGA CLOUD UK LIMITED</t>
+  </si>
+  <si>
+    <t>27/10 - added following information from David G on team call</t>
+  </si>
+  <si>
+    <t>DURATA</t>
+  </si>
+  <si>
+    <t>OPER8 GLOBAL</t>
+  </si>
+  <si>
+    <t>STAR EUROPE LIMITED</t>
+  </si>
+  <si>
+    <t>DCS</t>
+  </si>
+  <si>
+    <t>DS TOTAL SOLUTIONS LTD</t>
+  </si>
+  <si>
+    <t>PUREVPS LTD.</t>
+  </si>
+  <si>
+    <t>NET AI</t>
+  </si>
+  <si>
+    <t>UKAI</t>
+  </si>
+  <si>
+    <t>KUBUS GROUP LTD</t>
+  </si>
+  <si>
+    <t>FLEXGRID</t>
+  </si>
+  <si>
+    <t>NEUTRALITY MANAGED SERVICES</t>
+  </si>
+  <si>
+    <t>SCALEWAY</t>
+  </si>
+  <si>
+    <t>RETN</t>
+  </si>
+  <si>
+    <t>G42</t>
+  </si>
+  <si>
+    <t>FREECLIX LTD</t>
+  </si>
+  <si>
+    <t>HARDY FISHER SERVICES LIMITED</t>
+  </si>
+  <si>
+    <t>AMATIS NETWORKS</t>
+  </si>
+  <si>
+    <t>DATACENTREPLUS</t>
+  </si>
+  <si>
+    <t>HOSTKEY</t>
+  </si>
+  <si>
+    <t>HYPERSTACK CLOUD</t>
+  </si>
+  <si>
+    <t>OTTER AI</t>
+  </si>
+  <si>
+    <t>PIXIS</t>
+  </si>
+  <si>
+    <t>UNIVERSITY OF BRISTOL (UNITED KINGDOM)</t>
   </si>
 </sst>
 </file>
@@ -16043,7 +16115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AT719"/>
+  <dimension ref="A1:AT742"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -76159,7 +76231,7 @@
         <v>78</v>
       </c>
       <c r="C718" s="0">
-        <v>717</v>
+        <v>740</v>
       </c>
       <c r="D718" s="0">
         <v>1</v>
@@ -76188,7 +76260,7 @@
         <v>78</v>
       </c>
       <c r="C719" s="0">
-        <v>718</v>
+        <v>741</v>
       </c>
       <c r="D719" s="0">
         <v>1</v>
@@ -76205,6 +76277,9 @@
       <c r="H719" s="0" t="s">
         <v>492</v>
       </c>
+      <c r="I719" s="0" t="s">
+        <v>5185</v>
+      </c>
       <c r="J719" s="0">
         <v>15508595</v>
       </c>
@@ -76216,6 +76291,259 @@
       </c>
       <c r="S719" s="0" t="s">
         <v>3257</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="B720" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C720" s="0">
+        <v>717</v>
+      </c>
+      <c r="E720" s="0" t="s">
+        <v>5186</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="B721" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C721" s="0">
+        <v>718</v>
+      </c>
+      <c r="E721" s="0" t="s">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="B722" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C722" s="0">
+        <v>719</v>
+      </c>
+      <c r="E722" s="0" t="s">
+        <v>5188</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="B723" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C723" s="0">
+        <v>720</v>
+      </c>
+      <c r="E723" s="0" t="s">
+        <v>5189</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="B724" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C724" s="0">
+        <v>721</v>
+      </c>
+      <c r="E724" s="0" t="s">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="B725" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C725" s="0">
+        <v>722</v>
+      </c>
+      <c r="E725" s="0" t="s">
+        <v>5191</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="B726" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C726" s="0">
+        <v>723</v>
+      </c>
+      <c r="E726" s="0" t="s">
+        <v>5192</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="B727" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C727" s="0">
+        <v>724</v>
+      </c>
+      <c r="E727" s="0" t="s">
+        <v>5193</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="B728" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C728" s="0">
+        <v>725</v>
+      </c>
+      <c r="E728" s="0" t="s">
+        <v>5194</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="B729" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C729" s="0">
+        <v>726</v>
+      </c>
+      <c r="E729" s="0" t="s">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="B730" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C730" s="0">
+        <v>727</v>
+      </c>
+      <c r="E730" s="0" t="s">
+        <v>5196</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="B731" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C731" s="0">
+        <v>728</v>
+      </c>
+      <c r="E731" s="0" t="s">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="B732" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C732" s="0">
+        <v>729</v>
+      </c>
+      <c r="E732" s="0" t="s">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="B733" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C733" s="0">
+        <v>730</v>
+      </c>
+      <c r="E733" s="0" t="s">
+        <v>5199</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="B734" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C734" s="0">
+        <v>731</v>
+      </c>
+      <c r="E734" s="0" t="s">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="B735" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C735" s="0">
+        <v>732</v>
+      </c>
+      <c r="E735" s="0" t="s">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="B736" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C736" s="0">
+        <v>733</v>
+      </c>
+      <c r="E736" s="0" t="s">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="B737" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C737" s="0">
+        <v>734</v>
+      </c>
+      <c r="E737" s="0" t="s">
+        <v>5203</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="B738" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C738" s="0">
+        <v>735</v>
+      </c>
+      <c r="E738" s="0" t="s">
+        <v>5204</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="B739" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C739" s="0">
+        <v>736</v>
+      </c>
+      <c r="E739" s="0" t="s">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="B740" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C740" s="0">
+        <v>737</v>
+      </c>
+      <c r="E740" s="0" t="s">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="B741" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C741" s="0">
+        <v>738</v>
+      </c>
+      <c r="E741" s="0" t="s">
+        <v>5207</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="B742" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C742" s="0">
+        <v>739</v>
+      </c>
+      <c r="E742" s="0" t="s">
+        <v>5208</v>
       </c>
     </row>
   </sheetData>
